--- a/biology/Microbiologie/Laboratoire_Ampère/Laboratoire_Ampère.xlsx
+++ b/biology/Microbiologie/Laboratoire_Ampère/Laboratoire_Ampère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laboratoire_Amp%C3%A8re</t>
+          <t>Laboratoire_Ampère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Laboratoire Ampère est une unité de recherche spécialisée dans l'exploitation de l'énergie dans les systèmes en relation avec leur environnement. Il est implanté sur trois sites du Rhône : deux à Villeurbanne et un à Écully.
 Il travaille sous plusieurs tutelles : l'INSA de Lyon, le CNRS (UMR 5005), l'université Claude-Bernard-Lyon-I et l'école centrale de Lyon. Le laboratoire est né de la fusion en janvier 2007 des laboratoires CEGELY (Centre de génie électrique de Lyon) et LAI (Laboratoire d'automatique industrielle de Lyon).
-Les études sont effectuées autour de trois départements[1] :
+Les études sont effectuées autour de trois départements :
 Département énergie électrique ;
 Département microbiologie environnementale ;
 Département méthodes pour l’ingénierie des systèmes.
